--- a/Hospitals.xlsx
+++ b/Hospitals.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERAN LEVY\PycharmProjects\Scheduling_Algorithm-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F68A65-2F56-4612-AFCD-615D895520F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
   <si>
     <t>עיר</t>
   </si>
@@ -61,9 +67,6 @@
     <t>שניידר</t>
   </si>
   <si>
-    <t>מלרד</t>
-  </si>
-  <si>
     <t>התנסות יחודית</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>יחודית</t>
   </si>
   <si>
-    <t>ס. המבוגר</t>
-  </si>
-  <si>
     <t>מיון</t>
   </si>
   <si>
@@ -158,13 +158,22 @@
   </si>
   <si>
     <t>שנה ג</t>
+  </si>
+  <si>
+    <t>טראומה מלרד</t>
+  </si>
+  <si>
+    <t>ס.ילד</t>
+  </si>
+  <si>
+    <t>ס.המבוגר</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +236,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -273,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +322,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,6 +374,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,14 +567,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -555,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -581,25 +646,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -607,25 +672,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -633,25 +698,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -659,25 +724,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -685,25 +750,25 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -711,25 +776,25 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -737,25 +802,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -763,25 +828,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -789,25 +854,25 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -815,25 +880,25 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -841,25 +906,25 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -867,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -893,25 +958,25 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -919,25 +984,25 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -945,25 +1010,25 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -971,25 +1036,25 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -997,25 +1062,25 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1023,25 +1088,25 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1049,25 +1114,25 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1075,25 +1140,25 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1101,25 +1166,25 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1127,25 +1192,25 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1153,25 +1218,25 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1179,25 +1244,25 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1205,25 +1270,25 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1231,25 +1296,25 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
         <v>42</v>
       </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1257,25 +1322,25 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
         <v>42</v>
       </c>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1283,25 +1348,25 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1309,22 +1374,22 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
